--- a/data/NDVI/Images/Satellite_Images.xlsx
+++ b/data/NDVI/Images/Satellite_Images.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/241f573490875f27/Desktop/Practicum (GEOG 778)/Carbon Offsets/data/NDVI/Images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A42787C6-8297-470A-BB5B-42AE51CC15E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1851634B-ECB2-4E77-A4CF-541A74B6D8D1}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{A42787C6-8297-470A-BB5B-42AE51CC15E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01FBF730-AD45-45A0-BDE7-D2DD23EBE80C}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="4395" windowWidth="20415" windowHeight="10680" xr2:uid="{68A2EF2E-F19A-4451-A3BB-092D1EFEFC36}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{68A2EF2E-F19A-4451-A3BB-092D1EFEFC36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Project</t>
   </si>
@@ -99,6 +99,33 @@
   </si>
   <si>
     <t>CAR1264</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_045033_20140816_20200911_02_T1; LC08_L2SP_045032_20140816_20200911_02_T1</t>
+  </si>
+  <si>
+    <t>LC09_L2SP_045033_20230817_20230822_02_T1; LC09_L2SP_045032_20230817_20230822_02_T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>LC08_L2SP_017033_20151103_20200908_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_017033_20231024_20231031_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_014031_20170409_20200904_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_014031_20230410_20230420_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_014031_20230410</t>
+  </si>
+  <si>
+    <t>LC08_014031_20170409</t>
   </si>
 </sst>
 </file>
@@ -148,10 +175,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,6 +203,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,14 +509,15 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -486,10 +527,10 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -503,10 +544,10 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -517,58 +558,113 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/NDVI/Images/Satellite_Images.xlsx
+++ b/data/NDVI/Images/Satellite_Images.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/241f573490875f27/Desktop/Practicum (GEOG 778)/Carbon Offsets/data/NDVI/Images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{A42787C6-8297-470A-BB5B-42AE51CC15E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01FBF730-AD45-45A0-BDE7-D2DD23EBE80C}"/>
+  <xr:revisionPtr revIDLastSave="303" documentId="8_{A42787C6-8297-470A-BB5B-42AE51CC15E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED91DCF5-C3FD-41D8-8CBC-D85E8F06BEF5}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{68A2EF2E-F19A-4451-A3BB-092D1EFEFC36}"/>
+    <workbookView xWindow="1695" yWindow="735" windowWidth="20415" windowHeight="14475" xr2:uid="{68A2EF2E-F19A-4451-A3BB-092D1EFEFC36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Project</t>
   </si>
@@ -44,9 +44,6 @@
     <t>ACR282</t>
   </si>
   <si>
-    <t>Start_Image</t>
-  </si>
-  <si>
     <t>Present_Image</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>LC08_L2SP_046031_20230731_20230805_02_T1</t>
   </si>
   <si>
-    <t>Start_Image_ID</t>
-  </si>
-  <si>
     <t>LC08_L2SP_046031_20150725_20200908_02_T1</t>
   </si>
   <si>
@@ -101,15 +95,6 @@
     <t>CAR1264</t>
   </si>
   <si>
-    <t>LC08_L2SP_045033_20140816_20200911_02_T1; LC08_L2SP_045032_20140816_20200911_02_T1</t>
-  </si>
-  <si>
-    <t>LC09_L2SP_045033_20230817_20230822_02_T1; LC09_L2SP_045032_20230817_20230822_02_T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>LC08_L2SP_017033_20151103_20200908_02_T1</t>
   </si>
   <si>
@@ -126,6 +111,285 @@
   </si>
   <si>
     <t>LC08_014031_20170409</t>
+  </si>
+  <si>
+    <t>LC08_017033_20151103</t>
+  </si>
+  <si>
+    <t>LC08_017033_20231024</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_018034_20150907_20200908_02_T1</t>
+  </si>
+  <si>
+    <t>LC09_L2SP_018034_20231023_20231025_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_018034_20150907</t>
+  </si>
+  <si>
+    <t>LC08_018034_20231023</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_025028_20170406_20200904_02_T1</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_025028_20230407_20230420_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_025029_20170406_20200904_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_026028_20170328_20200904_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_025029_20170406</t>
+  </si>
+  <si>
+    <t>LC08_025028_20170406</t>
+  </si>
+  <si>
+    <t>LC08_026028_20170328</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_045032_20140816_20200911_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_045033_20140816_20200911_02_T1</t>
+  </si>
+  <si>
+    <t>Present_Image_2</t>
+  </si>
+  <si>
+    <t>Present_Image_3</t>
+  </si>
+  <si>
+    <t>Present_Image_ID_2</t>
+  </si>
+  <si>
+    <t>Present_Image_ID_3</t>
+  </si>
+  <si>
+    <t>LC09_L2SP_045033_20230817_20230822_02_T1</t>
+  </si>
+  <si>
+    <t>LC09_L2SP_045032_20230817_20230822_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_025028_20230407</t>
+  </si>
+  <si>
+    <t>LC08_026028_20230414</t>
+  </si>
+  <si>
+    <t>MAYBE NEED NEW IMAGES</t>
+  </si>
+  <si>
+    <t>LC09_L2SP_025029_20230517_20230519_02_T1</t>
+  </si>
+  <si>
+    <t>LC09_025029_20230517</t>
+  </si>
+  <si>
+    <t>Historic_Image</t>
+  </si>
+  <si>
+    <t>Historic_Image_2</t>
+  </si>
+  <si>
+    <t>Historic_Image_3</t>
+  </si>
+  <si>
+    <t>Historic_Image_4</t>
+  </si>
+  <si>
+    <t>Historic_Image_5</t>
+  </si>
+  <si>
+    <t>Historic_Image_ID</t>
+  </si>
+  <si>
+    <t>Historic_ImageID_2</t>
+  </si>
+  <si>
+    <t>Historic_Image_ID_3</t>
+  </si>
+  <si>
+    <t>Historic_Image_ID_4</t>
+  </si>
+  <si>
+    <t>Historic_Image_ID_5</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_024028_20140525_20200911_02_T1</t>
+  </si>
+  <si>
+    <t>LC09_L2SP_025028_20230517_20230519_02_T1</t>
+  </si>
+  <si>
+    <t>Present_Image_ID_4</t>
+  </si>
+  <si>
+    <t>Present_Image_ID_5</t>
+  </si>
+  <si>
+    <t>LC09_L2SP_024028_20230526_20230601_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_023028_20230527_20230606_02_T1</t>
+  </si>
+  <si>
+    <t>LC09_L2SP_022028_20230528_20230601_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_025028_20140617_20200911_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_023028_20140806_20200911_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_022028_20140815_20200911_02_T1</t>
+  </si>
+  <si>
+    <t>Present_Image_5</t>
+  </si>
+  <si>
+    <t>Present_Image_4</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_046027_20150927_20200908_02_T1</t>
+  </si>
+  <si>
+    <t>LC09_L2SP_046027_20230909_20230911_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_045033_20170402_20200904_02_T1</t>
+  </si>
+  <si>
+    <t>LC09_L2SP_045033_20230326_20230328_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_024029_20171008_20200903_02_T1</t>
+  </si>
+  <si>
+    <t>LC09_L2SP_024029_20231001_20231003_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_019034_20180501_20200901_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_019035_20180501_20201015_02_T1</t>
+  </si>
+  <si>
+    <t>LC09_L2SP_019034_20230523_20230601_02_T1</t>
+  </si>
+  <si>
+    <t>LC09_L2SP_019035_20230523_20230601_02_T1</t>
+  </si>
+  <si>
+    <t>LC09_L2SP_066018_20230820_20230822_02_T1</t>
+  </si>
+  <si>
+    <t>LC09_L2SP_063018_20230730_20230802_02_T1 (if too many clouds: LC08_L2SP_063018_20230706_20230717_02_T1)</t>
+  </si>
+  <si>
+    <t>LC09_L2SP_064018_20230619_20230621_02_T1 (alternatively: LC08_L2SP_065018_20230618_20230623_02_T1)</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_065018_20190810_20200827_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_066018_20190817_20200827_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_L2SP_063018_20190812_20200827_02_T1</t>
+  </si>
+  <si>
+    <t>LC08_046027_20150927</t>
+  </si>
+  <si>
+    <t>LC08_045033_20170402</t>
+  </si>
+  <si>
+    <t>LC08_025028_20140617</t>
+  </si>
+  <si>
+    <t>LC08_024029_20171008</t>
+  </si>
+  <si>
+    <t>LC08_019034_20180501</t>
+  </si>
+  <si>
+    <t>LC08_066018_20190817</t>
+  </si>
+  <si>
+    <t>LC08_024028_20140525</t>
+  </si>
+  <si>
+    <t>LC08_023028_20140806</t>
+  </si>
+  <si>
+    <t>LC08_022028_20140815</t>
+  </si>
+  <si>
+    <t>LC08_019035_20180501</t>
+  </si>
+  <si>
+    <t>LC08_065018_20190810</t>
+  </si>
+  <si>
+    <t>LC08_063018_20190812</t>
+  </si>
+  <si>
+    <t>LC09_046027_20230909</t>
+  </si>
+  <si>
+    <t>LC09_045033_20230326</t>
+  </si>
+  <si>
+    <t>LC09_025028_20230517</t>
+  </si>
+  <si>
+    <t>LC09_024029_20231001</t>
+  </si>
+  <si>
+    <t>LC09_019034_20230523</t>
+  </si>
+  <si>
+    <t>LC09_066018_20230820</t>
+  </si>
+  <si>
+    <t>LC09_024028_20230526</t>
+  </si>
+  <si>
+    <t>LC09_019035_20230523</t>
+  </si>
+  <si>
+    <t>LC09_064018_20230619 (alternatively: LC08_065018_20230618)</t>
+  </si>
+  <si>
+    <t>LC09_063018_20230730 (if too many clouds: LC08_063018_20230706)</t>
+  </si>
+  <si>
+    <t>LC08_023028_20230527</t>
+  </si>
+  <si>
+    <t>LC09_022028_20230528</t>
+  </si>
+  <si>
+    <t>LC08_045033_20140816</t>
+  </si>
+  <si>
+    <t>LC08_045032_20140816</t>
+  </si>
+  <si>
+    <t>LC09_045033_20230817</t>
+  </si>
+  <si>
+    <t>LC09_045032_20230817</t>
   </si>
 </sst>
 </file>
@@ -155,15 +419,33 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,21 +453,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
   </cellXfs>
@@ -210,9 +519,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,7 +559,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -356,7 +665,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -498,7 +807,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,161 +815,498 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DF382-FC73-428D-9EC9-48EBD38D0596}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="2" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="11" width="30.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16" width="28.28515625" style="2" customWidth="1"/>
+    <col min="17" max="21" width="21" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="M1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="B8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" s="14"/>
+      <c r="U8" s="14"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="B9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="U9" s="14"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
+      <c r="B10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
+      <c r="B11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>23</v>
+      <c r="B12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
+      <c r="B13" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/NDVI/Images/Satellite_Images.xlsx
+++ b/data/NDVI/Images/Satellite_Images.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/241f573490875f27/Desktop/Practicum (GEOG 778)/Carbon Offsets/data/NDVI/Images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="303" documentId="8_{A42787C6-8297-470A-BB5B-42AE51CC15E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED91DCF5-C3FD-41D8-8CBC-D85E8F06BEF5}"/>
+  <xr:revisionPtr revIDLastSave="308" documentId="8_{A42787C6-8297-470A-BB5B-42AE51CC15E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D5011F1-BEFB-456E-9111-793E56B5EEC2}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="735" windowWidth="20415" windowHeight="14475" xr2:uid="{68A2EF2E-F19A-4451-A3BB-092D1EFEFC36}"/>
+    <workbookView xWindow="1425" yWindow="1890" windowWidth="22845" windowHeight="13095" xr2:uid="{68A2EF2E-F19A-4451-A3BB-092D1EFEFC36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
   <si>
     <t>Project</t>
   </si>
@@ -128,9 +128,6 @@
     <t>LC08_018034_20150907</t>
   </si>
   <si>
-    <t>LC08_018034_20231023</t>
-  </si>
-  <si>
     <t>LC08_L2SP_025028_20170406_20200904_02_T1</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>LC09_045032_20230817</t>
+  </si>
+  <si>
+    <t>LC09_018034_20231023</t>
   </si>
 </sst>
 </file>
@@ -512,10 +512,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -815,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DF382-FC73-428D-9EC9-48EBD38D0596}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,67 +831,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="O1" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="R1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="T1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="V1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -932,40 +928,40 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1040,11 +1036,11 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1056,41 +1052,41 @@
         <v>12</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>38</v>
-      </c>
       <c r="G7" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
@@ -1101,24 +1097,24 @@
         <v>13</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S8" s="14"/>
       <c r="U8" s="14"/>
@@ -1128,24 +1124,24 @@
         <v>14</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U9" s="14"/>
     </row>
@@ -1154,54 +1150,54 @@
         <v>15</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>98</v>
-      </c>
       <c r="G10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="14" t="s">
+      <c r="J10" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>71</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>113</v>
       </c>
       <c r="P10" s="15"/>
       <c r="Q10" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="T10" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="T10" s="14" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1209,24 +1205,24 @@
         <v>16</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1234,34 +1230,34 @@
         <v>17</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1269,44 +1265,54 @@
         <v>18</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>101</v>
-      </c>
       <c r="G13" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>89</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M13" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="S13" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="R13" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>85</v>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
